--- a/50_did.xlsx
+++ b/50_did.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm_project\Visualization-of-agricultural-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA347D2-8F6B-436C-AF12-316B74E3CD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,512 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>VIN码</t>
+  </si>
+  <si>
+    <t>终端号</t>
+  </si>
+  <si>
+    <t>车辆类型</t>
+  </si>
+  <si>
+    <t>行驶里程</t>
+  </si>
+  <si>
+    <t>作业时长</t>
+  </si>
+  <si>
+    <t>作业面积</t>
+  </si>
+  <si>
+    <t>YMJAF278951</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000312</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃得玉米机</t>
+  </si>
+  <si>
+    <t>5天8小时51分</t>
+  </si>
+  <si>
+    <t>YMJAF278969</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000279</t>
+  </si>
+  <si>
+    <t>2天21小时8分</t>
+  </si>
+  <si>
+    <t>北斗标准类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL7HZ100000102149</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV2262501201980</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYKVOAT0000400</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃得甘蔗机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天1小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K83210278K3002335</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJ4121905100142</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛玉米机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAS0000213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃得玉米机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18小时22分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3621TTS1L35A4574</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDT1101912100010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五征拖拉机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJAF278937</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000444</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天2小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000294</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰汉甘蔗机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9天1小时14分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJAF278915</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000207</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天16小时52分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000295</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11小时24分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJAF278946</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000324</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8天15小时29分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000304</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天8小时50分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000363</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天2小时21分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJAF278960</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000253</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天20小时21分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000314</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天8小时22分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYTFQAT0000153</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨明玉米机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时27分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUZH201901C00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拉机车辆类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAS0000055</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自走式花生机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21小时9分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYKVOAT0000395</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6天12小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K83210252K3000823</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJ4121905100062</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMJAF278902</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000209</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17天15小时2分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYKVOAT0000340</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15天14小时1分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCHT201805C00008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15小时30分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000178</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12小时57分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000323</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天13小时4分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST201709150008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15天9小时45分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCHT201805C00010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天23小时9分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUZH201901C00008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天15小时27分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUZH201901C00007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时27分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUZH201901C00004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDT1101912100056</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛秧机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000292</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小时54分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUZH201901C00006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJHYTFQAT0000051</t>
+  </si>
+  <si>
+    <t>巨明玉米机</t>
+  </si>
+  <si>
+    <t>56分</t>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000322</t>
+  </si>
+  <si>
+    <t>辰汉甘蔗机</t>
+  </si>
+  <si>
+    <t>21小时36分</t>
+  </si>
+  <si>
+    <t>YMJAF278934</t>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000203</t>
+  </si>
+  <si>
+    <t>16小时</t>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000110</t>
+  </si>
+  <si>
+    <t>12天14小时4分</t>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000317</t>
+  </si>
+  <si>
+    <t>5天5小时17分</t>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000301</t>
+  </si>
+  <si>
+    <t>3天13小时24分</t>
+  </si>
+  <si>
+    <t>北斗标准类型</t>
+  </si>
+  <si>
+    <t>12分</t>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000340</t>
+  </si>
+  <si>
+    <t>7天10小时30分</t>
+  </si>
+  <si>
+    <t>NJHYOPWAT0000338</t>
+  </si>
+  <si>
+    <t>16天14小时59分</t>
+  </si>
+  <si>
+    <t>NJHYKVOAT0000352</t>
+  </si>
+  <si>
+    <t>沃得甘蔗机</t>
+  </si>
+  <si>
+    <t>6天15小时</t>
+  </si>
+  <si>
+    <t>NJHYKVOAT0000372</t>
+  </si>
+  <si>
+    <t>6天21小时</t>
+  </si>
+  <si>
+    <t>GL7HZ100000102162</t>
+  </si>
+  <si>
+    <t>LOV2262631101824</t>
+  </si>
+  <si>
+    <t>小麦机</t>
+  </si>
+  <si>
+    <t>0分</t>
+  </si>
+  <si>
+    <t>YMJAF278911</t>
+  </si>
+  <si>
+    <t>NJHYNBSAT0000165</t>
+  </si>
+  <si>
+    <t>6天12小时</t>
+  </si>
+  <si>
+    <t>GL7HZ100000102227</t>
+  </si>
+  <si>
+    <t>LOV2263292102508</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +553,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +843,1302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="14.4140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>112.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>103.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41922115</v>
+      </c>
+      <c r="C4" s="3">
+        <v>862237044025356</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31900264</v>
+      </c>
+      <c r="C8" s="3">
+        <v>862237044116825</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12.03</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3">
+        <v>175.13</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>79</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3">
+        <v>37.72</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>93</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3">
+        <v>26.57</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3">
+        <v>21.36</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>118</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6.46</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>270</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3">
+        <v>170.4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>639.01</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>340</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8.07</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>356</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3">
+        <v>99263.93</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>393</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3">
+        <v>482.62</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>408</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>409</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="3">
+        <v>22.28</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>489</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="3">
+        <v>334.17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1253.1199999999999</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>484</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>495</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="3">
+        <v>18.86</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>564</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1638.49</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6144.34</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>625</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1283.76</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4814.09</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>671</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="3">
+        <v>837.02</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3138.79</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>978</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13.38</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="3">
+        <v>50.14</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1025</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1382.33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5183.74</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1029</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1071</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1110</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1510.74</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5665.27</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1132</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="3">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1134</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>1134</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>1145</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="3">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>1152</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="3">
+        <v>55.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>1164</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="3">
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>1106</v>
+      </c>
+      <c r="B44" s="3">
+        <v>41914837</v>
+      </c>
+      <c r="C44" s="3">
+        <v>862237044130453</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>1096</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>1085</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="3">
+        <v>162.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>1086</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>1088</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>1072</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>1077</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>1079</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>